--- a/branches/pagecontent-update-index/StructureDefinition-hiv-organization.xlsx
+++ b/branches/pagecontent-update-index/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T04:54:17+00:00</t>
+    <t>2023-02-17T04:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/pagecontent-update-index/StructureDefinition-hiv-organization.xlsx
+++ b/branches/pagecontent-update-index/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T04:59:36+00:00</t>
+    <t>2023-02-17T05:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
